--- a/data/trans_media/Q47-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q47-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>171,02; 173,68</t>
+          <t>171,18; 173,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>171,45; 174,55</t>
+          <t>171,39; 174,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>171,42; 174,42</t>
+          <t>171,33; 174,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>159,14; 161,07</t>
+          <t>159,11; 161,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>159,67; 162,25</t>
+          <t>159,69; 162,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>159,8; 162,49</t>
+          <t>159,82; 162,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>165,17; 167,47</t>
+          <t>165,13; 167,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>165,86; 168,56</t>
+          <t>165,85; 168,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>165,82; 168,48</t>
+          <t>166,1; 168,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>171,98; 173,19</t>
+          <t>171,97; 173,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>171,58; 172,83</t>
+          <t>171,61; 172,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>172,38; 173,65</t>
+          <t>172,38; 173,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>160,14; 161,24</t>
+          <t>160,11; 161,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>160,01; 161,16</t>
+          <t>159,91; 161,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>160,03; 161,23</t>
+          <t>160,06; 161,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>166,04; 167,11</t>
+          <t>166,07; 167,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>165,92; 167,02</t>
+          <t>165,94; 167,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>166,31; 167,47</t>
+          <t>166,29; 167,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>172,77; 173,73</t>
+          <t>172,82; 173,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>172,48; 173,44</t>
+          <t>172,55; 173,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>159,96; 160,9</t>
+          <t>160,0; 160,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>160,27; 161,16</t>
+          <t>160,32; 161,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>160,92; 161,87</t>
+          <t>160,96; 161,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>166,39; 167,32</t>
+          <t>166,4; 167,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>166,45; 167,31</t>
+          <t>166,47; 167,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>167,02; 167,89</t>
+          <t>167,03; 167,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>172,75; 173,89</t>
+          <t>172,69; 173,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>172,95; 174,14</t>
+          <t>173,04; 174,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>173,28; 174,43</t>
+          <t>173,32; 174,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>160,81; 161,79</t>
+          <t>160,77; 161,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>160,69; 161,7</t>
+          <t>160,63; 161,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>161,48; 162,48</t>
+          <t>161,52; 162,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>166,73; 167,76</t>
+          <t>166,7; 167,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>166,81; 167,85</t>
+          <t>166,78; 167,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>167,33; 168,36</t>
+          <t>167,36; 168,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>173,04; 173,94</t>
+          <t>173,03; 173,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>173,03; 174,04</t>
+          <t>172,96; 173,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>174,3; 175,34</t>
+          <t>174,28; 175,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>160,86; 161,69</t>
+          <t>160,91; 161,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>161,03; 161,84</t>
+          <t>161,04; 161,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>161,14; 161,97</t>
+          <t>161,19; 161,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>166,69; 167,48</t>
+          <t>166,68; 167,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>166,73; 167,62</t>
+          <t>166,77; 167,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>167,36; 168,25</t>
+          <t>167,34; 168,26</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>172,85; 173,36</t>
+          <t>172,88; 173,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>173,58; 174,13</t>
+          <t>173,59; 174,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>160,66; 161,12</t>
+          <t>160,64; 161,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>160,82; 161,29</t>
+          <t>160,8; 161,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>161,21; 161,68</t>
+          <t>161,22; 161,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>166,71; 167,2</t>
+          <t>166,71; 167,17</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>166,8; 167,29</t>
+          <t>166,78; 167,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>167,32; 167,79</t>
+          <t>167,3; 167,78</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
